--- a/prediccion_test_Estadistica_2019_2.xlsx
+++ b/prediccion_test_Estadistica_2019_2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="9">
   <si>
     <t>Nota1</t>
   </si>
@@ -35,6 +35,12 @@
   </si>
   <si>
     <t>Reprobados</t>
+  </si>
+  <si>
+    <t>Habiles</t>
+  </si>
+  <si>
+    <t>Salones</t>
   </si>
 </sst>
 </file>
@@ -402,7 +408,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D144"/>
+  <dimension ref="A1:D147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2416,6 +2422,22 @@
         <v>35</v>
       </c>
     </row>
+    <row r="146" spans="1:2">
+      <c r="A146" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" s="4">
+        <v>518</v>
+      </c>
+      <c r="B147" s="4">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/prediccion_test_Estadistica_2019_2.xlsx
+++ b/prediccion_test_Estadistica_2019_2.xlsx
@@ -2432,10 +2432,10 @@
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="4">
-        <v>518</v>
+        <v>803</v>
       </c>
       <c r="B147" s="4">
-        <v>4</v>
+        <v>5.664339261071499</v>
       </c>
     </row>
   </sheetData>
